--- a/IMS2/App_Data/Indicators.xlsx
+++ b/IMS2/App_Data/Indicators.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biges\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IMS2\IMS2\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="445">
   <si>
     <t>指标名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1643,6 +1643,33 @@
   </si>
   <si>
     <t>急诊使用抗菌药物人数÷急诊人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6ad0a229-9100-449d-b07f-64a699c1f0d1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室住院人天数【药学】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总监办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院科室总人次【药学】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69eeb02a-e8ce-4717-8c73-ed05a6444c19</t>
+  </si>
+  <si>
+    <t>N/A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1650,7 +1677,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2033,18 +2060,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="1" max="1" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2104,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2108,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2140,7 +2168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2172,7 +2200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2204,7 +2232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>113</v>
       </c>
@@ -2236,7 +2264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>117</v>
       </c>
@@ -2268,7 +2296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -2300,7 +2328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>121</v>
       </c>
@@ -2332,7 +2360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -2364,7 +2392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -2396,7 +2424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -2428,7 +2456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -2460,7 +2488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -2492,7 +2520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -2524,7 +2552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -2556,7 +2584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
         <v>137</v>
       </c>
@@ -2588,7 +2616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -2620,7 +2648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -2652,7 +2680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
         <v>44</v>
       </c>
@@ -2684,7 +2712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
         <v>143</v>
       </c>
@@ -2716,7 +2744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
@@ -2748,7 +2776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
@@ -2780,7 +2808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
         <v>146</v>
       </c>
@@ -2812,7 +2840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
         <v>147</v>
       </c>
@@ -2844,7 +2872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
         <v>149</v>
       </c>
@@ -2876,7 +2904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
         <v>151</v>
       </c>
@@ -2908,7 +2936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
         <v>152</v>
       </c>
@@ -2940,7 +2968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
         <v>154</v>
       </c>
@@ -2972,7 +3000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
         <v>155</v>
       </c>
@@ -3004,7 +3032,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>156</v>
       </c>
@@ -3036,7 +3064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>158</v>
       </c>
@@ -3068,7 +3096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
         <v>160</v>
       </c>
@@ -3100,7 +3128,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
         <v>161</v>
       </c>
@@ -3132,7 +3160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
@@ -3164,7 +3192,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
         <v>164</v>
       </c>
@@ -3196,7 +3224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
         <v>165</v>
       </c>
@@ -3228,7 +3256,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
         <v>167</v>
       </c>
@@ -3260,7 +3288,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
         <v>67</v>
       </c>
@@ -3292,7 +3320,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
         <v>69</v>
       </c>
@@ -3324,7 +3352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
         <v>172</v>
       </c>
@@ -3356,268 +3384,268 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>439</v>
+      </c>
+      <c r="B42" t="s">
+        <v>438</v>
+      </c>
+      <c r="C42" t="s">
+        <v>440</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I42" t="s">
+        <v>441</v>
+      </c>
+      <c r="J42" s="2">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>442</v>
+      </c>
+      <c r="B43" t="s">
+        <v>443</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" t="s">
+        <v>444</v>
+      </c>
+      <c r="F43" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I43" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="2">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="E44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J42" s="2">
+      <c r="G44" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="45" spans="1:10">
+      <c r="A45" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="E45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="2" t="s">
+      <c r="G45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J43" s="2">
+      <c r="I45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J45" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+    <row r="46" spans="1:10">
+      <c r="A46" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" s="4" t="s">
+      <c r="F46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I46" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J46" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="47" spans="1:10">
+      <c r="A47" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I45" s="2" t="s">
+      <c r="F47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J47" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="48" spans="1:10">
+      <c r="A48" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" s="4" t="s">
+      <c r="E48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J46" s="2">
+      <c r="G48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+    <row r="49" spans="1:10">
+      <c r="A49" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="E49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H47" s="2" t="s">
+      <c r="G49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J47" s="2">
+      <c r="I49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J49" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="50" spans="1:10">
+      <c r="A50" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J48" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J49" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>111</v>
@@ -3629,234 +3657,234 @@
         <v>16</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J50" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J51" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I50" s="2" t="s">
+      <c r="H52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J52" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+    <row r="53" spans="1:10">
+      <c r="A53" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F51" s="2" t="s">
+      <c r="E53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H51" s="2" t="s">
+      <c r="G53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J51" s="2">
+      <c r="I53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J53" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+    <row r="54" spans="1:10">
+      <c r="A54" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F52" s="4" t="s">
+      <c r="E54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I52" s="2" t="s">
+      <c r="G54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J54" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+    <row r="55" spans="1:10">
+      <c r="A55" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="F55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J55" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+    <row r="56" spans="1:10">
+      <c r="A56" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J54" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J55" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>120</v>
+      <c r="E56" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I56" s="4" t="s">
-        <v>39</v>
+      <c r="I56" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="J56" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>199</v>
+        <v>7</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>107</v>
@@ -3865,88 +3893,88 @@
         <v>104</v>
       </c>
       <c r="J57" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J59" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+    <row r="60" spans="1:10">
+      <c r="A60" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J58" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>199</v>
@@ -3958,469 +3986,469 @@
         <v>107</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="J60" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J62" s="2">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+    <row r="63" spans="1:10">
+      <c r="A63" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J61" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="J62" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>209</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J63" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J64" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J63" s="2">
+      <c r="I65" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J65" s="2">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+    <row r="66" spans="1:10">
+      <c r="A66" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J64" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="J65" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J66" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J67" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="E68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H66" s="2" t="s">
+      <c r="G68" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J66" s="2">
+      <c r="I68" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J68" s="2">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+    <row r="69" spans="1:10">
+      <c r="A69" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" s="2" t="s">
+      <c r="E69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J67" s="2">
+      <c r="G69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J69" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+    <row r="70" spans="1:10">
+      <c r="A70" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G68" s="2" t="s">
+      <c r="F70" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I68" s="4" t="s">
+      <c r="H70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J70" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+    <row r="71" spans="1:10">
+      <c r="A71" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="E71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J69" s="2">
+      <c r="G71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+    <row r="72" spans="1:10">
+      <c r="A72" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I70" s="2" t="s">
+      <c r="G72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I72" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J72" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+    <row r="73" spans="1:10">
+      <c r="A73" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J71" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J72" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>107</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="J73" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>246</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>248</v>
+        <v>105</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="J74" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>250</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>251</v>
+        <v>123</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>103</v>
@@ -4429,682 +4457,682 @@
         <v>244</v>
       </c>
       <c r="F75" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I75" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="J75" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I76" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H75" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J75" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="J76" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>120</v>
+        <v>244</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>104</v>
       </c>
       <c r="G77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J78" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J77" s="2">
+      <c r="H79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J79" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+    <row r="80" spans="1:10">
+      <c r="A80" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" s="4" t="s">
+      <c r="E80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J78" s="2">
+      <c r="G80" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+    <row r="81" spans="1:10">
+      <c r="A81" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" s="4" t="s">
+      <c r="E81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I79" s="2" t="s">
+      <c r="G81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I81" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J81" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+    <row r="82" spans="1:10">
+      <c r="A82" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E82" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G80" s="2" t="s">
+      <c r="F82" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I80" s="4" t="s">
+      <c r="H82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I82" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J82" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+    <row r="83" spans="1:10">
+      <c r="A83" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J81" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J82" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>274</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>239</v>
       </c>
       <c r="D83" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J83" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J84" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I83" s="4" t="s">
+      <c r="I85" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="J83" s="2">
+      <c r="J85" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+    <row r="86" spans="1:10">
+      <c r="A86" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F84" s="4" t="s">
+      <c r="E86" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J84" s="2">
+      <c r="G86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J86" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+    <row r="87" spans="1:10">
+      <c r="A87" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D87" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F85" s="4" t="s">
+      <c r="E87" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J85" s="2">
+      <c r="G87" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J87" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+    <row r="88" spans="1:10">
+      <c r="A88" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D88" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E88" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G86" s="2" t="s">
+      <c r="F88" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="H86" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I86" s="4" t="s">
+      <c r="H88" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I88" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="J86" s="2">
+      <c r="J88" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+    <row r="89" spans="1:10">
+      <c r="A89" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B89" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C89" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D89" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F87" s="4" t="s">
+      <c r="E89" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H87" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J87" s="2">
+      <c r="H89" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J89" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+    <row r="90" spans="1:10">
+      <c r="A90" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B90" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D90" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J88" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="J89" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>261</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="H90" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J90" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I90" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J90" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" s="4" t="s">
+      <c r="I91" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="J91" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>285</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>105</v>
+        <v>133</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I92" s="4" t="s">
-        <v>261</v>
+      <c r="I92" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J92" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>268</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="J93" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>132</v>
+        <v>285</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>261</v>
+        <v>5</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>105</v>
+        <v>297</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I94" s="2" t="s">
-        <v>105</v>
+      <c r="I94" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="J94" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F95" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="F95" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="G95" s="2" t="s">
-        <v>304</v>
+        <v>104</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I95" s="4" t="s">
-        <v>268</v>
+      <c r="I95" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="J95" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>307</v>
+        <v>7</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>106</v>
@@ -5113,632 +5141,632 @@
         <v>105</v>
       </c>
       <c r="J96" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>7</v>
+        <v>103</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>307</v>
+        <v>104</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>7</v>
+        <v>304</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I97" s="2" t="s">
-        <v>105</v>
+      <c r="I97" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="J97" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>120</v>
+        <v>129</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>105</v>
+        <v>307</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>312</v>
+        <v>104</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>313</v>
+        <v>106</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="J98" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>106</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="J99" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J100" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J101" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+    <row r="102" spans="1:10">
+      <c r="A102" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B102" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F100" s="2" t="s">
+      <c r="E102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J100" s="2">
+      <c r="G102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J102" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+    <row r="103" spans="1:10">
+      <c r="A103" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B103" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E103" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G101" s="2" t="s">
+      <c r="F103" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="H101" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I101" s="4" t="s">
+      <c r="H103" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I103" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J101" s="2">
+      <c r="J103" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+    <row r="104" spans="1:10">
+      <c r="A104" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="G104" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I102" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J102" s="2">
+      <c r="I104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J104" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+    <row r="105" spans="1:10">
+      <c r="A105" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F103" s="2" t="s">
+      <c r="E105" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H103" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J103" s="2">
+      <c r="H105" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J105" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
+    <row r="106" spans="1:10">
+      <c r="A106" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G104" s="2" t="s">
+      <c r="F106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="H104" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I104" s="2" t="s">
+      <c r="H106" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I106" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J104" s="2">
+      <c r="J106" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
+    <row r="107" spans="1:10">
+      <c r="A107" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B107" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F105" s="2" t="s">
+      <c r="E107" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G105" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H105" s="2" t="s">
+      <c r="G107" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H107" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I105" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J105" s="2">
+      <c r="I107" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J107" s="2">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
+    <row r="108" spans="1:10">
+      <c r="A108" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F106" s="2" t="s">
+      <c r="E108" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H106" s="2" t="s">
+      <c r="G108" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H108" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I106" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J106" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
+      <c r="I108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J108" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E109" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G107" s="2" t="s">
+      <c r="F109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H107" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I107" s="4" t="s">
+      <c r="H109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I109" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J107" s="2">
+      <c r="J109" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
+    <row r="110" spans="1:10">
+      <c r="A110" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F108" s="2" t="s">
+      <c r="E110" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G108" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J108" s="2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J109" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="G110" s="2" t="s">
-        <v>343</v>
+        <v>105</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I110" s="4" t="s">
+      <c r="I110" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J110" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J110" s="2">
+      <c r="G111" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J111" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J112" s="2">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
+    <row r="113" spans="1:10">
+      <c r="A113" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D113" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F111" s="2" t="s">
+      <c r="E113" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="G111" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J111" s="2">
+      <c r="G113" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J113" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
+    <row r="114" spans="1:10">
+      <c r="A114" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J112" s="2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="J113" s="2">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D114" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J114" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J115" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J114" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J115" s="2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>354</v>
@@ -5747,277 +5775,277 @@
         <v>105</v>
       </c>
       <c r="H116" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J116" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J117" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H118" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="I118" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J116" s="2">
+      <c r="J118" s="2">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
+    <row r="119" spans="1:10">
+      <c r="A119" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D119" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" s="2" t="s">
+      <c r="E119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H117" s="2" t="s">
+      <c r="G119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H119" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I117" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J117" s="2">
+      <c r="I119" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J119" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
+    <row r="120" spans="1:10">
+      <c r="A120" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J118" s="2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J119" s="2">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>105</v>
+        <v>366</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>105</v>
+        <v>261</v>
       </c>
       <c r="J120" s="2">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>373</v>
+        <v>7</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>106</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="J121" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J122" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F122" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G122" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J122" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="G123" s="2" t="s">
-        <v>105</v>
+        <v>373</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>106</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="J123" s="2">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
-        <v>378</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>111</v>
+        <v>375</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E124" s="4" t="s">
-        <v>16</v>
+      <c r="E124" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>104</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>380</v>
+        <v>104</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I124" s="4" t="s">
-        <v>313</v>
+      <c r="I124" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="J124" s="2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>34</v>
@@ -6029,574 +6057,574 @@
         <v>116</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>105</v>
       </c>
       <c r="J125" s="2">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>383</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>34</v>
+        <v>379</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J126" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H126" s="2" t="s">
+      <c r="F127" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J127" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H128" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I126" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J126" s="2">
+      <c r="I128" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J128" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
+    <row r="129" spans="1:10">
+      <c r="A129" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B129" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C129" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E129" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G127" s="2" t="s">
+      <c r="F129" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="H127" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I127" s="2" t="s">
+      <c r="H129" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I129" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J127" s="2">
+      <c r="J129" s="2">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
+    <row r="130" spans="1:10">
+      <c r="A130" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B130" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F128" s="2" t="s">
+      <c r="E130" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="G128" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J128" s="2">
+      <c r="G130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J130" s="2">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
+    <row r="131" spans="1:10">
+      <c r="A131" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B131" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D131" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F129" s="2" t="s">
+      <c r="E131" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G129" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J129" s="2">
+      <c r="G131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J131" s="2">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
+    <row r="132" spans="1:10">
+      <c r="A132" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B132" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C132" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I130" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="J130" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J131" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>116</v>
+      <c r="E132" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>105</v>
+        <v>396</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>106</v>
       </c>
       <c r="I132" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J132" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I133" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J132" s="2">
+      <c r="J133" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J134" s="2">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
+    <row r="135" spans="1:10">
+      <c r="A135" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B135" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F133" s="2" t="s">
+      <c r="E135" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="G135" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J133" s="2">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J134" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>405</v>
       </c>
       <c r="I135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J135" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J136" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I137" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="J135" s="2">
+      <c r="J137" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
+    <row r="138" spans="1:10">
+      <c r="A138" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B138" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C138" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D138" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F136" s="2" t="s">
+      <c r="E138" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G136" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H136" s="2" t="s">
+      <c r="G138" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H138" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="I136" s="2" t="s">
+      <c r="I138" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J136" s="2">
+      <c r="J138" s="2">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
+    <row r="139" spans="1:10">
+      <c r="A139" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B139" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J137" s="2">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J138" s="2">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J139" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J140" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F139" s="2" t="s">
+      <c r="E141" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G139" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J139" s="2">
+      <c r="G141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J141" s="2">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
+    <row r="142" spans="1:10">
+      <c r="A142" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J140" s="2">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J141" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="J142" s="2">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="4" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>103</v>
@@ -6605,82 +6633,146 @@
         <v>120</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I143" s="4" t="s">
-        <v>179</v>
+      <c r="I143" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="J143" s="2">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>105</v>
       </c>
       <c r="J144" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="4" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E145" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J145" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J146" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E147" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F145" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="F147" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G147" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="H145" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I145" s="2" t="s">
+      <c r="H147" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I147" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="J145" s="2">
+      <c r="J147" s="2">
         <v>144</v>
       </c>
     </row>
